--- a/biology/Botanique/Lopezia/Lopezia.xlsx
+++ b/biology/Botanique/Lopezia/Lopezia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lopezia est un genre de plantes à fleurs de la famille des Onagraceae. Il comprend une trentaine d'espèces toutes endémiques d'Amérique centrale et du Mexique, dont Lopezia racemosa, l'espèce type.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces sont des herbacées ou des arbustes, le plus souvent librement ramifiés. Leurs feuilles sont pétiolées, alternes, ou les inférieures opposées, simples. Les fleurs sont solitaires, petites, pédicellées, dans les aisselles supérieures de feuilles parfois très réduites. Le tube floral est peu visible. Il y a quatre sépales, généralement rouges, étroits, et quatre pétales, dissemblables, blancs à roses, les deux supérieurs non guiculés, avec aucune, une ou deux glandes à l'apex de la griffe ; les deux inférieurs sont griffés et incurvés vers le haut, sans glande. Les deux étamines sont adnées au style et connotées entre elles à la base, les postérieures fertiles, les antérieures stériles, pétaloïdes. L'ovaire a quatre lobes ; le style est court, filiforme, avec le stigmate légèrement élargi et à peine lobé ; les ovules sont multisériés, nombreux. Le fruit est une capsule globuleuse à claviforme, coriace, à quatre lobes et valvules. Les graines, nombreuses, sont obovoïdes et granuleuses[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces sont des herbacées ou des arbustes, le plus souvent librement ramifiés. Leurs feuilles sont pétiolées, alternes, ou les inférieures opposées, simples. Les fleurs sont solitaires, petites, pédicellées, dans les aisselles supérieures de feuilles parfois très réduites. Le tube floral est peu visible. Il y a quatre sépales, généralement rouges, étroits, et quatre pétales, dissemblables, blancs à roses, les deux supérieurs non guiculés, avec aucune, une ou deux glandes à l'apex de la griffe ; les deux inférieurs sont griffés et incurvés vers le haut, sans glande. Les deux étamines sont adnées au style et connotées entre elles à la base, les postérieures fertiles, les antérieures stériles, pétaloïdes. L'ovaire a quatre lobes ; le style est court, filiforme, avec le stigmate légèrement élargi et à peine lobé ; les ovules sont multisériés, nombreux. Le fruit est une capsule globuleuse à claviforme, coriace, à quatre lobes et valvules. Les graines, nombreuses, sont obovoïdes et granuleuses.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (11 juin 2021)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (11 juin 2021) :
 Lopezia bracteata Raf.
 Lopezia ciliatula Plitmann, Raven &amp; Breedlove
 Lopezia clavata Brandegee
@@ -605,10 +621,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce type est Lopezia racemosa, décrite en 1791 par le botaniste espagnol Antonio José Cavanilles[3].
-Les genres suivants sont synonymes de Lopezia selon GBIF       (11 juin 2021)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce type est Lopezia racemosa, décrite en 1791 par le botaniste espagnol Antonio José Cavanilles.
+Les genres suivants sont synonymes de Lopezia selon GBIF       (11 juin 2021) :
 Diplandra Hook. &amp; Arn.
 Enthomanthus Moc. &amp; Sessé ex Ramírez
 Jehlia Planch. ex Rose
